--- a/data/rules.xlsx
+++ b/data/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FB51C9-0A28-C74B-9C57-B68CF28D4D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9339443E-DEF1-0249-AB8C-34B73B3E6749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3300" windowWidth="29920" windowHeight="14180" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4279" uniqueCount="2910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4279" uniqueCount="2909">
   <si>
     <t>If</t>
   </si>
@@ -9873,9 +9873,6 @@
   </si>
   <si>
     <t>0~Shape~mäśśäw</t>
-  </si>
-  <si>
-    <t>ä not before “consonant not before vowel”</t>
   </si>
   <si>
     <t>Add pä- to verb before ~IMP</t>
@@ -31834,7 +31831,7 @@
       </c>
       <c r="F536" s="6"/>
       <c r="G536" s="6" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="H536" s="6"/>
     </row>
@@ -34357,7 +34354,7 @@
       </c>
       <c r="F653" s="6"/>
       <c r="G653" s="20" t="s">
-        <v>2908</v>
+        <v>2703</v>
       </c>
       <c r="H653" s="6"/>
     </row>

--- a/data/rules.xlsx
+++ b/data/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C355A39-F2CC-C14E-9367-382522DA3546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBF69C1-53D7-3A46-AD7D-40B0043EA472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="580" windowWidth="29920" windowHeight="14180" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
@@ -9875,7 +9875,7 @@
     <t>0~Pattern~[ăa]$;*0~Category~qualitative—0~Morpheme~ṣomă,sasăk;1~Morpheme~F;2~Morpheme~PL</t>
   </si>
   <si>
-    <t>0~Shape~ä;0~After~^r$;0~PermissibleClusterLast~</t>
+    <t>0~Shape~ä;0~After~^r$;0~PermissibleCluster~</t>
   </si>
 </sst>
 </file>
@@ -10391,7 +10391,7 @@
     <sheetView tabSelected="1" topLeftCell="A705" zoomScale="177" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A651" sqref="A651"/>
-      <selection pane="topRight" activeCell="A715" sqref="A715"/>
+      <selection pane="topRight" activeCell="C715" sqref="C715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/rules.xlsx
+++ b/data/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E5886E-4F08-0F42-87FC-D84B3707B463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1571D4CD-8A42-7B42-BDA0-1D7BDDADCB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="580" windowWidth="29920" windowHeight="14180" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="29920" windowHeight="14180" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="3" r:id="rId1"/>
@@ -10391,10 +10391,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF76C2B-797E-2544-85E2-CF60CE11F59B}">
   <dimension ref="A1:XFA772"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" zoomScale="177" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A666" zoomScale="177" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A651" sqref="A651"/>
-      <selection pane="topRight" activeCell="C674" sqref="C674"/>
+      <selection pane="topRight" activeCell="F677" sqref="F677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
